--- a/medicine/Pharmacie/Télacébec/Télacébec.xlsx
+++ b/medicine/Pharmacie/Télacébec/Télacébec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9lac%C3%A9bec</t>
+          <t>Télacébec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le télacébec est un antituberculeux inhibiteur du cytochrome bc1 que l'on rencontre dans Mycobacterium tuberculosis. Il a été développé par l’entreprise sud-coréenne Qurient, sous l’identifiant « Q203 », pour le traitement de la tuberculose multirésistante.
-Le télacébec a fait l'objet d'un essai de phase I à trois doses successives : 100 mg, 200 mg et 300 mg. Le traitement a été bien toléré aux trois doses. Le test d'efficacité était l'absence de mycobactéries entre le 3e et le 14e jour[3].
-Un essai de phase II a commencé en juillet 2018 en Afrique du Sud. Il montre une réduction rapide de l'excrétion du bacille dans les crachats des tuberculeux traités[4].
+Le télacébec a fait l'objet d'un essai de phase I à trois doses successives : 100 mg, 200 mg et 300 mg. Le traitement a été bien toléré aux trois doses. Le test d'efficacité était l'absence de mycobactéries entre le 3e et le 14e jour.
+Un essai de phase II a commencé en juillet 2018 en Afrique du Sud. Il montre une réduction rapide de l'excrétion du bacille dans les crachats des tuberculeux traités.
 </t>
         </is>
       </c>
